--- a/DbLayouts/L4-批次作業/AchDeductMedia.xlsx
+++ b/DbLayouts/L4-批次作業/AchDeductMedia.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="238">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -917,9 +917,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>提回規格</t>
-  </si>
-  <si>
     <t>1.火險費
 2.帳管費
 3.期款
@@ -928,6 +925,17 @@
   </si>
   <si>
     <t>N</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>提回會計日期</t>
+  </si>
+  <si>
+    <t>Seq</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>提回規格，00-成功</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1168,7 +1176,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1299,6 +1307,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1607,21 +1621,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.5" style="7"/>
+    <col min="1" max="1" width="5.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1652,7 +1666,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="32.4">
       <c r="A3" s="43" t="s">
         <v>8</v>
       </c>
@@ -1756,7 +1770,7 @@
       </c>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:7" ht="49.5">
+    <row r="10" spans="1:7" ht="48.6">
       <c r="A10" s="16">
         <v>2</v>
       </c>
@@ -1830,7 +1844,7 @@
       </c>
       <c r="G13" s="23"/>
     </row>
-    <row r="14" spans="1:7" ht="247.5">
+    <row r="14" spans="1:7" ht="243">
       <c r="A14" s="16">
         <v>6</v>
       </c>
@@ -1885,10 +1899,10 @@
         <v>2</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="16">
         <v>15</v>
       </c>
@@ -1906,7 +1920,7 @@
       </c>
       <c r="G17" s="23"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" s="16">
         <v>17</v>
       </c>
@@ -1924,7 +1938,7 @@
       </c>
       <c r="G18" s="23"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="16">
         <v>18</v>
       </c>
@@ -1942,7 +1956,7 @@
       </c>
       <c r="G19" s="23"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" s="16">
         <v>19</v>
       </c>
@@ -1960,7 +1974,7 @@
       </c>
       <c r="G20" s="23"/>
     </row>
-    <row r="21" spans="1:7" ht="66">
+    <row r="21" spans="1:8" ht="64.8">
       <c r="A21" s="16">
         <v>20</v>
       </c>
@@ -1977,10 +1991,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="16">
         <v>21</v>
       </c>
@@ -1998,7 +2012,7 @@
       </c>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" s="16">
         <v>22</v>
       </c>
@@ -2016,7 +2030,7 @@
       </c>
       <c r="G23" s="23"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" s="16">
         <v>23</v>
       </c>
@@ -2034,7 +2048,7 @@
       </c>
       <c r="G24" s="23"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25" s="16">
         <v>24</v>
       </c>
@@ -2052,7 +2066,7 @@
       </c>
       <c r="G25" s="23"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" s="16">
         <v>25</v>
       </c>
@@ -2070,7 +2084,7 @@
       </c>
       <c r="G26" s="20"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" s="16">
         <v>26</v>
       </c>
@@ -2088,7 +2102,7 @@
       </c>
       <c r="G27" s="20"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28" s="16">
         <v>27</v>
       </c>
@@ -2106,7 +2120,7 @@
       </c>
       <c r="G28" s="20"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" s="16">
         <v>28</v>
       </c>
@@ -2122,8 +2136,11 @@
       <c r="E29" s="22">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="G29" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="16">
         <v>29</v>
       </c>
@@ -2139,8 +2156,9 @@
       <c r="E30" s="22">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="44"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="16">
         <v>30</v>
       </c>
@@ -2157,7 +2175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32" s="16">
         <v>31</v>
       </c>
@@ -2253,10 +2271,10 @@
       <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="115.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="115.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
@@ -2317,19 +2335,19 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" customWidth="1"/>
     <col min="8" max="8" width="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" thickBot="1">
+    <row r="1" spans="1:8" ht="16.8" thickBot="1">
       <c r="A1" s="33" t="s">
         <v>204</v>
       </c>
@@ -3380,27 +3398,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="59" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" thickBot="1">
+    <row r="1" spans="1:10" ht="16.8" thickBot="1">
       <c r="A1" s="33" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>205</v>
@@ -3675,7 +3691,7 @@
         <v>98</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J10" s="28"/>
     </row>
